--- a/analise.xlsx
+++ b/analise.xlsx
@@ -415,10 +415,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF15"/>
+  <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -490,392 +490,200 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-11-21T20:45:16.697738</t>
+          <t>2025-11-21T20:56:54.004642</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Resumo Jogos</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>G:5 E:3 D:2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>Médias</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mandante</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Visitante</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Placar M</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Placar V</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cartões Amarelos M</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Cartões Amarelos V</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Cartões Vermelhos M</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Cartões Vermelhos V</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Impedimentos M</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Impedimentos V</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Escanteios M</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Escanteios V</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Chutes no Alvo M</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Chutes no Alvo V</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Chutes Totais M</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Chutes Totais V</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Posse M (%)</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Posse V (%)</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Casa/Fora</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>GF</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Resultado</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>Escanteios (Time)</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>Escanteios (Adversário)</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>Cartões (Time)</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>Cartões (Adversário)</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>Chutes no Alvo (Time)</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Chutes no Alvo (Adv)</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>Chutes Totais (Time)</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>Chutes Totais (Adv)</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>Posse (Time)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-11-15</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Club 2 de Mayo</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Fernando de la Mora</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>9</v>
-      </c>
-      <c r="R6" t="n">
-        <v>52</v>
-      </c>
-      <c r="S6" t="n">
-        <v>48</v>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Casa</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="X6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>52</v>
+          <t>GF:1.4 GA:1.0 SOT:4.9 ST:11.5 POS:51.4%</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-11-08</t>
+          <t>Data</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Deportivo Santaní</t>
+          <t>Mandante</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Club 2 de Mayo</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>6</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>13</v>
-      </c>
-      <c r="R7" t="n">
-        <v>47</v>
-      </c>
-      <c r="S7" t="n">
-        <v>53</v>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Placar M</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Placar V</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cartões Amarelos M</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cartões Amarelos V</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cartões Vermelhos M</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Cartões Vermelhos V</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Impedimentos M</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Impedimentos V</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Escanteios M</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Escanteios V</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Chutes no Alvo M</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Chutes no Alvo V</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Chutes Totais M</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Chutes Totais V</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Posse M (%)</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Posse V (%)</t>
+        </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Fora</t>
-        </is>
-      </c>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
+          <t>Casa/Fora</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>GF</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="X7" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>53</v>
+          <t>Resultado</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Escanteios (Time)</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Escanteios (Adversário)</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Cartões (Time)</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Cartões (Adversário)</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Chutes no Alvo (Time)</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Chutes no Alvo (Adv)</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Chutes Totais (Time)</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>Chutes Totais (Adv)</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Posse (Time)</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-11-02</t>
+          <t>2025-11-15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -885,20 +693,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12 de Octubre</t>
+          <t>Fernando de la Mora</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -907,34 +715,34 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R8" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S8" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -942,53 +750,53 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
         <v>1</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>V</t>
         </is>
       </c>
       <c r="X8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Atyrá FC</t>
+          <t>Deportivo Santaní</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -997,16 +805,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1015,83 +823,83 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>13</v>
+      </c>
+      <c r="R9" t="n">
+        <v>47</v>
+      </c>
+      <c r="S9" t="n">
+        <v>53</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Fora</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="X9" t="n">
         <v>6</v>
       </c>
-      <c r="O9" t="n">
-        <v>6</v>
-      </c>
-      <c r="P9" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>12</v>
-      </c>
-      <c r="R9" t="n">
-        <v>49</v>
-      </c>
-      <c r="S9" t="n">
-        <v>51</v>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Fora</t>
-        </is>
-      </c>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2</v>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="X9" t="n">
-        <v>5</v>
-      </c>
       <c r="Y9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-11-02</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1101,110 +909,110 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rubio Ñú</t>
+          <t>12 de Octubre</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q10" t="n">
+        <v>10</v>
+      </c>
+      <c r="R10" t="n">
+        <v>55</v>
+      </c>
+      <c r="S10" t="n">
+        <v>45</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="X10" t="n">
         <v>7</v>
       </c>
-      <c r="R10" t="n">
-        <v>57</v>
-      </c>
-      <c r="S10" t="n">
-        <v>43</v>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>Casa</t>
-        </is>
-      </c>
-      <c r="U10" t="n">
-        <v>3</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="X10" t="n">
-        <v>6</v>
-      </c>
       <c r="Y10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA10" t="n">
         <v>4</v>
       </c>
       <c r="AB10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AC10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AF10" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Resistencia</t>
+          <t>Atyrá FC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1213,13 +1021,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -1237,28 +1045,28 @@
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
         <v>6</v>
       </c>
       <c r="P11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="R11" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S11" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1269,45 +1077,45 @@
         <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z11" t="n">
         <v>2</v>
       </c>
       <c r="AA11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB11" t="n">
         <v>6</v>
       </c>
       <c r="AC11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1317,110 +1125,110 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3 de Febrero</t>
+          <t>Rubio Ñú</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
         <v>2</v>
       </c>
       <c r="P12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q12" t="n">
         <v>7</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
+        <v>57</v>
+      </c>
+      <c r="S12" t="n">
+        <v>43</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="X12" t="n">
         <v>6</v>
       </c>
-      <c r="R12" t="n">
-        <v>51</v>
-      </c>
-      <c r="S12" t="n">
-        <v>49</v>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>Casa</t>
-        </is>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="X12" t="n">
-        <v>4</v>
-      </c>
       <c r="Y12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AC12" t="n">
         <v>2</v>
       </c>
       <c r="AD12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE12" t="n">
         <v>7</v>
       </c>
-      <c r="AE12" t="n">
-        <v>6</v>
-      </c>
       <c r="AF12" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-10-12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Independiente FBC</t>
+          <t>Resistencia</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1429,16 +1237,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1447,34 +1255,34 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
       </c>
       <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>7</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3</v>
+      </c>
+      <c r="O13" t="n">
         <v>6</v>
       </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>4</v>
-      </c>
       <c r="P13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q13" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R13" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="S13" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1482,48 +1290,48 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>V</t>
         </is>
       </c>
       <c r="X13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB13" t="n">
         <v>6</v>
       </c>
-      <c r="Z13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>4</v>
-      </c>
       <c r="AC13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AF13" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1533,11 +1341,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>3 de Febrero</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1546,7 +1354,7 @@
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1555,34 +1363,34 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R14" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S14" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1590,149 +1398,365 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z14" t="n">
         <v>2</v>
       </c>
       <c r="AA14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Independiente FBC</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Club 2 de Mayo</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="n">
+        <v>5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>4</v>
+      </c>
+      <c r="P15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>10</v>
+      </c>
+      <c r="R15" t="n">
+        <v>53</v>
+      </c>
+      <c r="S15" t="n">
+        <v>47</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Fora</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2</v>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Club 2 de Mayo</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>General Caballero</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3</v>
+      </c>
+      <c r="P16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>8</v>
+      </c>
+      <c r="R16" t="n">
+        <v>50</v>
+      </c>
+      <c r="S16" t="n">
+        <v>50</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="X16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>2025-09-14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Tacuary</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Club 2 de Mayo</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
         <v>7</v>
       </c>
-      <c r="M15" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="n">
         <v>7</v>
       </c>
-      <c r="O15" t="n">
-        <v>3</v>
-      </c>
-      <c r="P15" t="n">
+      <c r="O17" t="n">
+        <v>3</v>
+      </c>
+      <c r="P17" t="n">
         <v>15</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q17" t="n">
         <v>9</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R17" t="n">
         <v>56</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S17" t="n">
         <v>44</v>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>Fora</t>
         </is>
       </c>
-      <c r="U15" t="n">
-        <v>1</v>
-      </c>
-      <c r="V15" t="n">
-        <v>3</v>
-      </c>
-      <c r="W15" t="inlineStr">
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3</v>
+      </c>
+      <c r="W17" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="X15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y15" t="n">
+      <c r="X17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y17" t="n">
         <v>7</v>
       </c>
-      <c r="Z15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC15" t="n">
+      <c r="Z17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC17" t="n">
         <v>7</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD17" t="n">
         <v>9</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE17" t="n">
         <v>15</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF17" t="n">
         <v>44</v>
       </c>
     </row>
@@ -1747,10 +1771,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF15"/>
+  <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1822,392 +1846,200 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-11-21T20:45:16.698226</t>
+          <t>2025-11-21T20:56:54.005388</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Resumo Jogos</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>G:5 E:4 D:1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>Médias</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mandante</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Visitante</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Placar M</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Placar V</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cartões Amarelos M</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Cartões Amarelos V</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Cartões Vermelhos M</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Cartões Vermelhos V</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Impedimentos M</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Impedimentos V</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Escanteios M</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Escanteios V</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Chutes no Alvo M</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Chutes no Alvo V</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Chutes Totais M</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Chutes Totais V</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Posse M (%)</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Posse V (%)</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Casa/Fora</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>GF</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Resultado</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>Escanteios (Time)</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>Escanteios (Adversário)</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>Cartões (Time)</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>Cartões (Adversário)</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>Chutes no Alvo (Time)</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Chutes no Alvo (Adv)</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>Chutes Totais (Time)</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>Chutes Totais (Adv)</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>Posse (Time)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-11-16</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Deportivo Recoleta</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Sportivo Iteño</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>6</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>8</v>
-      </c>
-      <c r="R6" t="n">
-        <v>54</v>
-      </c>
-      <c r="S6" t="n">
-        <v>46</v>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Casa</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="X6" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>54</v>
+          <t>GF:1.4 GA:1.0 SOT:4.9 ST:11.7 POS:51.8%</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-11-09</t>
+          <t>Data</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rubio Ñú</t>
+          <t>Mandante</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>7</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>6</v>
-      </c>
-      <c r="P7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>14</v>
-      </c>
-      <c r="R7" t="n">
-        <v>46</v>
-      </c>
-      <c r="S7" t="n">
-        <v>54</v>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Placar M</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Placar V</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cartões Amarelos M</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cartões Amarelos V</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cartões Vermelhos M</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Cartões Vermelhos V</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Impedimentos M</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Impedimentos V</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Escanteios M</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Escanteios V</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Chutes no Alvo M</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Chutes no Alvo V</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Chutes Totais M</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Chutes Totais V</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Posse M (%)</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Posse V (%)</t>
+        </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Fora</t>
-        </is>
-      </c>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
+          <t>Casa/Fora</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>GF</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="X7" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>54</v>
+          <t>Resultado</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Escanteios (Time)</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Escanteios (Adversário)</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Cartões (Time)</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Cartões (Adversário)</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Chutes no Alvo (Time)</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Chutes no Alvo (Adv)</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Chutes Totais (Time)</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>Chutes Totais (Adv)</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Posse (Time)</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>2025-11-16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2217,20 +2049,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Resistencia</t>
+          <t>Sportivo Iteño</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -2239,88 +2071,88 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>8</v>
+      </c>
+      <c r="R8" t="n">
+        <v>54</v>
+      </c>
+      <c r="S8" t="n">
+        <v>46</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="X8" t="n">
         <v>6</v>
       </c>
-      <c r="N8" t="n">
-        <v>6</v>
-      </c>
-      <c r="O8" t="n">
-        <v>5</v>
-      </c>
-      <c r="P8" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="Y8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD8" t="n">
         <v>12</v>
       </c>
-      <c r="R8" t="n">
-        <v>52</v>
-      </c>
-      <c r="S8" t="n">
-        <v>48</v>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Casa</t>
-        </is>
-      </c>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2</v>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="X8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>13</v>
-      </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-11-09</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12 de Octubre</t>
+          <t>Rubio Ñú</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2329,16 +2161,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -2347,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -2356,25 +2188,25 @@
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q9" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R9" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="S9" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -2382,48 +2214,48 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>V</t>
         </is>
       </c>
       <c r="X9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y9" t="n">
         <v>5</v>
       </c>
       <c r="Z9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA9" t="n">
         <v>3</v>
       </c>
       <c r="AB9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF9" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-11-03</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2433,20 +2265,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Independiente FBC</t>
+          <t>Resistencia</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -2455,34 +2287,34 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>6</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P10" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R10" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="S10" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -2490,18 +2322,18 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y10" t="n">
         <v>6</v>
@@ -2510,33 +2342,33 @@
         <v>2</v>
       </c>
       <c r="AA10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>12 de Octubre</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2548,13 +2380,13 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -2569,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
@@ -2578,19 +2410,19 @@
         <v>4</v>
       </c>
       <c r="O11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q11" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="R11" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -2598,48 +2430,48 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>1</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X11" t="n">
         <v>5</v>
       </c>
       <c r="Y11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AC11" t="n">
         <v>4</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2649,20 +2481,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Independiente FBC</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -2671,88 +2503,88 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>6</v>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P12" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="Q12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R12" t="n">
+        <v>49</v>
+      </c>
+      <c r="S12" t="n">
         <v>51</v>
       </c>
-      <c r="S12" t="n">
-        <v>49</v>
-      </c>
       <c r="T12" t="inlineStr">
         <is>
           <t>Casa</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="X12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y12" t="n">
         <v>6</v>
       </c>
       <c r="Z12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AC12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sportivo Iteño</t>
+          <t>General Caballero</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2764,13 +2596,13 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -2785,28 +2617,28 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4</v>
+      </c>
+      <c r="O13" t="n">
         <v>7</v>
       </c>
-      <c r="N13" t="n">
-        <v>4</v>
-      </c>
-      <c r="O13" t="n">
-        <v>6</v>
-      </c>
       <c r="P13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q13" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R13" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S13" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2814,7 +2646,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
         <v>1</v>
@@ -2825,37 +2657,37 @@
         </is>
       </c>
       <c r="X13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y13" t="n">
         <v>7</v>
       </c>
-      <c r="Y13" t="n">
-        <v>5</v>
-      </c>
       <c r="Z13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC13" t="n">
         <v>4</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2865,20 +2697,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Resistencia</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -2887,34 +2719,34 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P14" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q14" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="R14" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S14" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2922,10 +2754,10 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -2933,138 +2765,354 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AF14" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sportivo Iteño</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Deportivo Recoleta</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>7</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>6</v>
+      </c>
+      <c r="P15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>13</v>
+      </c>
+      <c r="R15" t="n">
+        <v>48</v>
+      </c>
+      <c r="S15" t="n">
+        <v>52</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Fora</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="X15" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Deportivo Recoleta</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>7</v>
+      </c>
+      <c r="R16" t="n">
+        <v>52</v>
+      </c>
+      <c r="S16" t="n">
+        <v>48</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="X16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>2025-09-15</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Independiente FBC</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Deportivo Recoleta</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
         <v>6</v>
       </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="n">
-        <v>5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>4</v>
-      </c>
-      <c r="P15" t="n">
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4</v>
+      </c>
+      <c r="P17" t="n">
         <v>12</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q17" t="n">
         <v>10</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R17" t="n">
         <v>51</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S17" t="n">
         <v>49</v>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>Fora</t>
         </is>
       </c>
-      <c r="U15" t="n">
-        <v>1</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2</v>
-      </c>
-      <c r="W15" t="inlineStr">
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2</v>
+      </c>
+      <c r="W17" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="X15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y15" t="n">
+      <c r="X17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y17" t="n">
         <v>6</v>
       </c>
-      <c r="Z15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD15" t="n">
+      <c r="Z17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD17" t="n">
         <v>10</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE17" t="n">
         <v>12</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF17" t="n">
         <v>49</v>
       </c>
     </row>
@@ -3079,7 +3127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3087,16 +3135,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
+    <col width="21" customWidth="1" min="7" max="7"/>
+    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="21" customWidth="1" min="9" max="9"/>
+    <col width="21" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3192,143 +3240,132 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OVER 1.5</t>
+          <t>OVER (HISTÓRICO)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>69.16%</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>OVER 2.5</t>
+          <t>80% / 70%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>43.03%</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>OVER 3.5</t>
+          <t>70% / 70%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>22.13%</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>BTS</t>
+          <t>60% / 50%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>48.83%</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>PALPITE</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>1x1</t>
+          <t>20% / 30%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CORNERS MÉDIA</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>OVER (MODELO)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CASA</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>5.2</v>
+          <t>69.16%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>VISITANTE</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5.2</v>
+          <t>43.03%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10.4</v>
+          <t>22.13%</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>BTS</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>OVER 9.5</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>59.1%</t>
+          <t>48.83%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CARTÕES MÉDIA</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>HT (MODELO)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Over 0.5 HT</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CASA</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2.2</v>
+          <t>66.04%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Over 1.5 HT</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>VISITANTE</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>OVER 4.5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+          <t>29.36%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHUTES NO ALVO MÉDIA</t>
+          <t>CORNERS MÉDIA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -3338,7 +3375,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -3346,17 +3383,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+        <v>6.4</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>OVER 9.5 (hist)</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHUTES TOTAIS MÉDIA</t>
+          <t>CARTÕES MÉDIA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -3366,7 +3417,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11.5</v>
+        <v>2.3</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -3374,17 +3425,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+        <v>2.7</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>OVER 4.5 (hist)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>POSSE MÉDIA</t>
+          <t>CHUTES NO ALVO MÉDIA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -3394,7 +3459,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>51.4</v>
+        <v>4.9</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -3402,7 +3467,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>51.8</v>
+        <v>4.9</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
@@ -3412,126 +3477,162 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RETROSPECTO CASA</t>
+          <t>CHUTES TOTAIS MÉDIA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>CASA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>11.5</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>VISITANTE</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>FORM</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>VVEEV</t>
-        </is>
-      </c>
+        <v>11.7</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RETROSPECTO VISITANTE</t>
+          <t>POSSE MÉDIA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>CASA</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>51.4</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>VISITANTE</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>FORM</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>VVEED</t>
-        </is>
-      </c>
+        <v>51.8</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SUGESTÃO DE ENTRADA</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>RETROSPECTO CASA</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>FORM</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VEDVD</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Observação</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Probabilidades via Poisson; cantos/cartões aproximados pela média histórica.</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>RETROSPECTO VISITANTE</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>FORM</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>WDDDW</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SUGESTÃO DE ENTRADA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
